--- a/fhir/ig/hpd/all-profiles.xlsx
+++ b/fhir/ig/hpd/all-profiles.xlsx
@@ -2298,7 +2298,7 @@
     <t>draft</t>
   </si>
   <si>
-    <t>2023-09-21T15:43:09-03:00</t>
+    <t>2023-10-06T10:04:43-03:00</t>
   </si>
   <si>
     <t>complex-type</t>

--- a/fhir/ig/hpd/all-profiles.xlsx
+++ b/fhir/ig/hpd/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9174" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9178" uniqueCount="760">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/StructureDefinition/PrestadorProfesionalMinsal</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/PrestadorProfesionalMinsal</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Chile</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
@@ -329,7 +329,7 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/core/StructureDefinition/SexoNacimiento820}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/SexoNacimiento820}
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSTipoIdentificadorDEIS</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSTipoIdentificadorDEIS</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1390,7 +1390,7 @@
     <t>mencion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/core/StructureDefinition/Mencion}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/Mencion}
 </t>
   </si>
   <si>
@@ -1493,7 +1493,7 @@
     <t>Practitioner.qualification:Cert.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSTituloProf</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSTituloProf</t>
   </si>
   <si>
     <t>Practitioner.qualification:Cert.code.id</t>
@@ -2091,7 +2091,7 @@
     <t>Practitioner.qualification:EspOdo.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSEspecialidadOdonto</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSEspecialidadOdonto</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspOdo.period</t>
@@ -2178,7 +2178,7 @@
     <t>Practitioner.qualification:EspBioQ.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSEspecialidadBioquim</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSEspecialidadBioquim</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspBioQ.period</t>
@@ -2235,7 +2235,7 @@
     <t>Practitioner.qualification:EspFarma.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSEspecialidadFarma</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSEspecialidadFarma</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspFarma.period</t>
@@ -2292,13 +2292,13 @@
     <t>Mencion</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/StructureDefinition/Mencion</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/Mencion</t>
   </si>
   <si>
     <t>draft</t>
   </si>
   <si>
-    <t>2023-10-06T10:04:43-03:00</t>
+    <t>2023-10-12T17:20:42-03:00</t>
   </si>
   <si>
     <t>complex-type</t>
@@ -2310,7 +2310,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:http://minsal.cl/fhir/core/StructureDefinition/PrestadorProfesionalMinsal#Practitioner.qualification</t>
+    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/PrestadorProfesionalMinsal#Practitioner.qualification</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -2343,13 +2343,13 @@
     <t>SexoNacimiento820</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/StructureDefinition/SexoNacimiento820</t>
-  </si>
-  <si>
-    <t>element:http://minsal.cl/fhir/core/StructureDefinition/PrestadorProfesionalMinsal#Practitioner</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSSexoBiologico</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/SexoNacimiento820</t>
+  </si>
+  <si>
+    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/PrestadorProfesionalMinsal#Practitioner</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSSexoBiologico</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2745,239 +2745,255 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>444</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>444</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>743</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>92</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>744</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>36</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B43" t="s" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="1">
+    <row r="44">
+      <c r="A44" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B43" t="s" s="1">
+      <c r="B44" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>756</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>7</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>756</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>101</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>741</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>741</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>742</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>17</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>102</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>743</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>38</v>
+        <v>744</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B65" t="s" s="2">
         <v>758</v>
       </c>
     </row>
@@ -3022,7 +3038,7 @@
     <col min="24" max="24" width="9.16015625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="54.765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="74.17578125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.13671875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="225.41796875" customWidth="true" bestFit="true"/>

--- a/fhir/ig/hpd/all-profiles.xlsx
+++ b/fhir/ig/hpd/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -2635,7 +2635,7 @@
     <t>draft</t>
   </si>
   <si>
-    <t>2023-11-07T17:38:44-03:00</t>
+    <t>2023-11-10T09:26:13-03:00</t>
   </si>
   <si>
     <t>complex-type</t>
@@ -13586,10 +13586,10 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>84</v>
@@ -37964,10 +37964,10 @@
       </c>
       <c r="F328" s="2"/>
       <c r="G328" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H328" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I328" t="s" s="2">
         <v>84</v>
